--- a/数据/本科生/类别月薪.xlsx
+++ b/数据/本科生/类别月薪.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPZ\Desktop\hpz\知侬\数据\本科生\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C7D68B6-E56D-492E-8B8B-9D518E07C414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC5BED-7AC4-4874-994D-6BC57E491D70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="34">
   <si>
     <t xml:space="preserve">检验变量 </t>
   </si>
@@ -108,6 +108,42 @@
   </si>
   <si>
     <t>classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">女性 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">农村 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">城镇 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">男性 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">非党员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">党员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有学生干部 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">非学生干部 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">专业不相关 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">专业相关 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classesAlias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,22 +470,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -457,556 +492,655 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>211</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4203.08</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1595.81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
         <v>441</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4215.78</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1305.94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>485</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4302.72</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1413.77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
         <v>682</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4307.76</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1533.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
         <v>236</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4377.75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1718.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
         <v>698</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4386.58</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1460.81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
         <v>720</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4419.7700000000004</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1481.13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
         <v>431</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4484.38</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1661.77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
         <v>499</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4534.7299999999996</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1686.86</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
         <v>242</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4543.76</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1395.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
         <v>327</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4758.87</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1572.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
         <v>662</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4806.6899999999996</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1635.28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
         <v>493</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4863.58</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1761.22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2017</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5087.99</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1873.34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
         <v>828</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5089.49</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1824.11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2017</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
         <v>670</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5203.1499999999996</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1944.62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2018</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
         <v>225</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5045.33</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1990.08</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
         <v>460</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>5130.5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1757.37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
         <v>319</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5194.84</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1748.53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2018</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
         <v>813</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5317.92</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1961.31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2018</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
         <v>648</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5530.98</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2148.35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2018</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
         <v>747</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5542.47</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2029.54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2018</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
         <v>516</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5672.29</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2209.37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2018</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
         <v>156</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5942.05</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2302.98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2019</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
         <v>476</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5747.96</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>89.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2019</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
         <v>277</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5791.42</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>130.51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2019</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>858</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6057.27</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>71.150000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2019</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
         <v>691</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>6186.53</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>86.01</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2019</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
         <v>341</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6195.89</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>108.53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2019</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>754</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6334.71</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>79.62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2019</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
         <v>564</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>6558.81</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>97.51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2019</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
         <v>173</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6884.74</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>195.59</v>
       </c>
     </row>
